--- a/other/country_financials.xlsx
+++ b/other/country_financials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldilly/Documents/Jobs/Research/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldilly/Documents/Jobs/Research/Econ-Sanctions/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B418AB4-9FA2-6A4B-9471-7A6FD038866D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E8C710-F176-CC42-937D-CADFD117694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="17240" xr2:uid="{10B255FA-2757-0742-A9FD-5D5FE3BF121C}"/>
   </bookViews>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE016941-19B8-4E4D-970B-06261392D27D}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
